--- a/ResourcesFolder/Testcase.xlsx
+++ b/ResourcesFolder/Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Open browser and click on jishi</t>
   </si>
@@ -27,10 +27,16 @@
     <t>TC_EC_0002</t>
   </si>
   <si>
-    <t>Open browser and click on "yes " button</t>
-  </si>
-  <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>Open browser and click on jishi next button then veify the text</t>
+  </si>
+  <si>
+    <t>Banner verification</t>
+  </si>
+  <si>
+    <t>TC_EC_0003</t>
   </si>
 </sst>
 </file>
@@ -362,35 +368,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ResourcesFolder/Testcase.xlsx
+++ b/ResourcesFolder/Testcase.xlsx
@@ -16,27 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Open browser and click on jishi</t>
   </si>
   <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Open browser and click on jishi next button then veify the text</t>
+  </si>
+  <si>
+    <t>Banner verification</t>
+  </si>
+  <si>
+    <t>TC_EC_0003</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>TC_EC_0002</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Categeory</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
     <t>TC_EC_0001</t>
-  </si>
-  <si>
-    <t>TC_EC_0002</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>Open browser and click on jishi next button then veify the text</t>
-  </si>
-  <si>
-    <t>Banner verification</t>
-  </si>
-  <si>
-    <t>TC_EC_0003</t>
   </si>
 </sst>
 </file>
@@ -368,45 +392,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -416,12 +462,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
